--- a/4_Supply_Chain_Network_Design/Facility_Allocation.xlsx
+++ b/4_Supply_Chain_Network_Design/Facility_Allocation.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haythamomar/Desktop/supply chain optimization/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ns86s\repos\Supply-Chain-Design\4_Supply_Chain_Network_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F11C3AF3-928F-9343-9A79-3E6C02244AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26233F-8B9C-4DBE-AEBF-91A31032EF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{50F09397-1F84-B346-A7E7-B5B6EA71ABCD}"/>
+    <workbookView xWindow="1860" yWindow="495" windowWidth="25530" windowHeight="14400" xr2:uid="{50F09397-1F84-B346-A7E7-B5B6EA71ABCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$4:$C$10,Sheet1!$E$16:$K$22</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$11</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Sheet1!$E$16:$K$22</definedName>
@@ -38,8 +40,9 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$E$23</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">11</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$E$27</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
@@ -54,9 +57,9 @@
     <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$C$12</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$E$16:$E$22</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$F$16:$F$22</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">Sheet1!$G$16:$G$22</definedName>
@@ -71,22 +74,14 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -173,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,28 +200,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,29 +533,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AF723D-EF91-A342-8541-E2DE2771B448}">
   <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="I2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -607,14 +590,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -640,14 +625,16 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>20000</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
@@ -673,14 +660,16 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>33000</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
@@ -706,14 +695,16 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>9000</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
@@ -739,14 +730,16 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>60000</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
@@ -772,14 +765,16 @@
         <v>915</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2500</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
@@ -805,14 +800,16 @@
         <v>922</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>35000</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
@@ -838,16 +835,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
         <f>SUM(C4:C10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -855,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>3</v>
@@ -879,98 +876,228 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D23" s="3" t="s">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E23" s="2">
+        <f>SUM(E16:E22)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ref="F23:K23" si="0">SUM(F16:F22)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>12</v>
+      </c>
+      <c r="E27">
+        <f>B4*SUMPRODUCT(E16:E22,J4:J10)+B5*SUMPRODUCT(F16:F22,K4:K10)+B6*SUMPRODUCT(G16:G22,L4:L10)+B7*SUMPRODUCT(H16:H22,M4:M10)+B8*SUMPRODUCT(I16:I22,N4:N10)+B9*SUMPRODUCT(J16:J22,O4:O10)+B10*SUMPRODUCT(K16:K22,P4:P10)</f>
+        <v>58481000</v>
       </c>
     </row>
   </sheetData>
